--- a/Sprint project.xlsx
+++ b/Sprint project.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UMM\Semester 7\ML\Kelompok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UMM\Semester 7\ML\Cardiomegaly-Disease-Classification-CNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Task</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>On going</t>
   </si>
 </sst>
 </file>
@@ -371,47 +380,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -419,7 +444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -427,7 +452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -435,7 +460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>

--- a/Sprint project.xlsx
+++ b/Sprint project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Task</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>On going</t>
   </si>
 </sst>
 </file>
@@ -383,7 +380,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -443,6 +440,9 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -451,6 +451,9 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -459,6 +462,9 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -466,6 +472,9 @@
       </c>
       <c r="B8" t="s">
         <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
